--- a/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_pressure_event.xlsx
+++ b/6_publication/1_toPSAil/1_plots/9.0_css_comparisons/yang_pressure_event.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\8.0_css_comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\9.0_css_comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18491BB-C8C4-4DE5-9F91-94EED3F66008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AF15E2-E103-4741-96B5-EE65B165AD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D658C7E-A61A-4136-8743-3329CB1EDB16}"/>
   </bookViews>
@@ -395,7 +395,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="A16:C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,126 +415,85 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <f>B2/3</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <f t="shared" ref="B4:B19" si="0">B3/3</f>
-        <v>0.1111111111111111</v>
-      </c>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>3.7037037037037035E-2</v>
-      </c>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2345679012345678E-2</v>
-      </c>
+      <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.1152263374485592E-3</v>
-      </c>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>1.3717421124828531E-3</v>
-      </c>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>4.5724737082761773E-4</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5241579027587258E-4</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0805263425290864E-5</v>
-      </c>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6935087808430289E-5</v>
-      </c>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.645029269476763E-6</v>
-      </c>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.881676423158921E-6</v>
-      </c>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>6.2722547438630704E-7</v>
-      </c>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
